--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H2">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>11.15404367149447</v>
+        <v>16.48249590122</v>
       </c>
       <c r="R2">
-        <v>11.15404367149447</v>
+        <v>148.34246311098</v>
       </c>
       <c r="S2">
-        <v>0.004914070009577639</v>
+        <v>0.006889779871967189</v>
       </c>
       <c r="T2">
-        <v>0.004914070009577639</v>
+        <v>0.006889779871967189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H3">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>645.2776978258893</v>
+        <v>654.4701201537181</v>
       </c>
       <c r="R3">
-        <v>645.2776978258893</v>
+        <v>5890.231081383462</v>
       </c>
       <c r="S3">
-        <v>0.2842861186601977</v>
+        <v>0.2735723453330436</v>
       </c>
       <c r="T3">
-        <v>0.2842861186601977</v>
+        <v>0.2735723453330436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H4">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>121.5774408077021</v>
+        <v>1.915151828515333</v>
       </c>
       <c r="R4">
-        <v>121.5774408077021</v>
+        <v>17.236366456638</v>
       </c>
       <c r="S4">
-        <v>0.05356264268905107</v>
+        <v>0.0008005446868571306</v>
       </c>
       <c r="T4">
-        <v>0.05356264268905107</v>
+        <v>0.0008005446868571306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6509516227701</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H5">
-        <v>12.6509516227701</v>
+        <v>31.412582</v>
       </c>
       <c r="I5">
-        <v>0.4199892126576749</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J5">
-        <v>0.4199892126576749</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>13.66711204061727</v>
+        <v>0.9822470071317778</v>
       </c>
       <c r="R5">
-        <v>13.66711204061727</v>
+        <v>8.840223064185999</v>
       </c>
       <c r="S5">
-        <v>0.006021237443060524</v>
+        <v>0.0004105850048193017</v>
       </c>
       <c r="T5">
-        <v>0.006021237443060524</v>
+        <v>0.0004105850048193017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.6509516227701</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H6">
-        <v>12.6509516227701</v>
+        <v>31.412582</v>
       </c>
       <c r="I6">
-        <v>0.4199892126576749</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J6">
-        <v>0.4199892126576749</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>790.6623690237338</v>
+        <v>140.1556043009596</v>
       </c>
       <c r="R6">
-        <v>790.6623690237338</v>
+        <v>1261.400438708636</v>
       </c>
       <c r="S6">
-        <v>0.3483373698142029</v>
+        <v>0.05858586389120075</v>
       </c>
       <c r="T6">
-        <v>0.3483373698142029</v>
+        <v>0.05858586389120075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H7">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J7">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7753606251016</v>
+        <v>1.57413</v>
       </c>
       <c r="N7">
-        <v>11.7753606251016</v>
+        <v>4.72239</v>
       </c>
       <c r="O7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q7">
-        <v>148.9695176088322</v>
+        <v>20.21676514697</v>
       </c>
       <c r="R7">
-        <v>148.9695176088322</v>
+        <v>181.95088632273</v>
       </c>
       <c r="S7">
-        <v>0.06563060540041149</v>
+        <v>0.008450726299017117</v>
       </c>
       <c r="T7">
-        <v>0.06563060540041149</v>
+        <v>0.008450726299017117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.69790100158756</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H8">
-        <v>1.69790100158756</v>
+        <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.05636730943970632</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J8">
-        <v>0.05636730943970632</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08032284433198</v>
+        <v>62.503947</v>
       </c>
       <c r="N8">
-        <v>1.08032284433198</v>
+        <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.01433664785092544</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P8">
-        <v>0.01433664785092544</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q8">
-        <v>1.83428123942919</v>
+        <v>802.7466710231431</v>
       </c>
       <c r="R8">
-        <v>1.83428123942919</v>
+        <v>7224.720039208287</v>
       </c>
       <c r="S8">
-        <v>0.0008081182657412151</v>
+        <v>0.3355528124775413</v>
       </c>
       <c r="T8">
-        <v>0.0008081182657412151</v>
+        <v>0.3355528124775413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.69790100158756</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H9">
-        <v>1.69790100158756</v>
+        <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.05636730943970632</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J9">
-        <v>0.05636730943970632</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>62.4982525109528</v>
+        <v>0.182903</v>
       </c>
       <c r="N9">
-        <v>62.4982525109528</v>
+        <v>0.548709</v>
       </c>
       <c r="O9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q9">
-        <v>106.115845535819</v>
+        <v>2.349048042840333</v>
       </c>
       <c r="R9">
-        <v>106.115845535819</v>
+        <v>21.141432385563</v>
       </c>
       <c r="S9">
-        <v>0.04675082054960913</v>
+        <v>0.0009819158470197049</v>
       </c>
       <c r="T9">
-        <v>0.04675082054960913</v>
+        <v>0.0009819158470197047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.69790100158756</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H10">
-        <v>1.69790100158756</v>
+        <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.05636730943970632</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J10">
-        <v>0.05636730943970632</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>11.7753606251016</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N10">
-        <v>11.7753606251016</v>
+        <v>0.281423</v>
       </c>
       <c r="O10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q10">
-        <v>19.99339659941472</v>
+        <v>1.204784589573444</v>
       </c>
       <c r="R10">
-        <v>19.99339659941472</v>
+        <v>10.843061306161</v>
       </c>
       <c r="S10">
-        <v>0.008808370624355967</v>
+        <v>0.0005036070183208702</v>
       </c>
       <c r="T10">
-        <v>0.008808370624355967</v>
+        <v>0.0005036070183208702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.16554959557341</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H11">
-        <v>2.16554959557341</v>
+        <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.07189241542739168</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J11">
-        <v>0.07189241542739168</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.08032284433198</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N11">
-        <v>1.08032284433198</v>
+        <v>40.155898</v>
       </c>
       <c r="O11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q11">
-        <v>2.339492698631835</v>
+        <v>171.9092152769429</v>
       </c>
       <c r="R11">
-        <v>2.339492698631835</v>
+        <v>1547.182937492486</v>
       </c>
       <c r="S11">
-        <v>0.001030696243134954</v>
+        <v>0.07185905935114399</v>
       </c>
       <c r="T11">
-        <v>0.001030696243134954</v>
+        <v>0.07185905935114398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.16554959557341</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H12">
-        <v>2.16554959557341</v>
+        <v>5.462614</v>
       </c>
       <c r="I12">
-        <v>0.07189241542739168</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J12">
-        <v>0.07189241542739168</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4982525109528</v>
+        <v>1.57413</v>
       </c>
       <c r="N12">
-        <v>62.4982525109528</v>
+        <v>4.72239</v>
       </c>
       <c r="O12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q12">
-        <v>135.3430654491387</v>
+        <v>2.86628819194</v>
       </c>
       <c r="R12">
-        <v>135.3430654491387</v>
+        <v>25.79659372746</v>
       </c>
       <c r="S12">
-        <v>0.0596272812368149</v>
+        <v>0.001198125260302581</v>
       </c>
       <c r="T12">
-        <v>0.0596272812368149</v>
+        <v>0.001198125260302581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.16554959557341</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H13">
-        <v>2.16554959557341</v>
+        <v>5.462614</v>
       </c>
       <c r="I13">
-        <v>0.07189241542739168</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J13">
-        <v>0.07189241542739168</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7753606251016</v>
+        <v>62.503947</v>
       </c>
       <c r="N13">
-        <v>11.7753606251016</v>
+        <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.1562673597855136</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P13">
-        <v>0.1562673597855136</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q13">
-        <v>25.50012743941983</v>
+        <v>113.811645312486</v>
       </c>
       <c r="R13">
-        <v>25.50012743941983</v>
+        <v>1024.304807812374</v>
       </c>
       <c r="S13">
-        <v>0.01123443794744183</v>
+        <v>0.04757393466188545</v>
       </c>
       <c r="T13">
-        <v>0.01123443794744183</v>
+        <v>0.04757393466188545</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.28295298486323</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H14">
-        <v>3.28295298486323</v>
+        <v>5.462614</v>
       </c>
       <c r="I14">
-        <v>0.1089882311164007</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J14">
-        <v>0.1089882311164007</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.08032284433198</v>
+        <v>0.182903</v>
       </c>
       <c r="N14">
-        <v>1.08032284433198</v>
+        <v>0.548709</v>
       </c>
       <c r="O14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q14">
-        <v>3.546649106415608</v>
+        <v>0.3330428294806667</v>
       </c>
       <c r="R14">
-        <v>3.546649106415608</v>
+        <v>2.997385465326</v>
       </c>
       <c r="S14">
-        <v>0.001562525889411111</v>
+        <v>0.000139213854310078</v>
       </c>
       <c r="T14">
-        <v>0.001562525889411111</v>
+        <v>0.000139213854310078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.28295298486323</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H15">
-        <v>3.28295298486323</v>
+        <v>5.462614</v>
       </c>
       <c r="I15">
-        <v>0.1089882311164007</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J15">
-        <v>0.1089882311164007</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>62.4982525109528</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N15">
-        <v>62.4982525109528</v>
+        <v>0.281423</v>
       </c>
       <c r="O15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q15">
-        <v>205.1788246295684</v>
+        <v>0.1708116910802222</v>
       </c>
       <c r="R15">
-        <v>205.1788246295684</v>
+        <v>1.537305219722</v>
       </c>
       <c r="S15">
-        <v>0.09039440210273626</v>
+        <v>7.140028780556738E-05</v>
       </c>
       <c r="T15">
-        <v>0.09039440210273626</v>
+        <v>7.140028780556737E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.28295298486323</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H16">
-        <v>3.28295298486323</v>
+        <v>5.462614</v>
       </c>
       <c r="I16">
-        <v>0.1089882311164007</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J16">
-        <v>0.1089882311164007</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7753606251016</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N16">
-        <v>11.7753606251016</v>
+        <v>40.155898</v>
       </c>
       <c r="O16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q16">
-        <v>38.65795531201825</v>
+        <v>24.37290784415245</v>
       </c>
       <c r="R16">
-        <v>38.65795531201825</v>
+        <v>219.356170597372</v>
       </c>
       <c r="S16">
-        <v>0.0170313031242533</v>
+        <v>0.01018801830088872</v>
       </c>
       <c r="T16">
-        <v>0.0170313031242533</v>
+        <v>0.01018801830088872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.169900666666666</v>
+      </c>
+      <c r="H17">
+        <v>6.509701999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="J17">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.57413</v>
+      </c>
+      <c r="N17">
+        <v>4.72239</v>
+      </c>
+      <c r="O17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q17">
+        <v>3.41570573642</v>
+      </c>
+      <c r="R17">
+        <v>30.74135162777999</v>
+      </c>
+      <c r="S17">
+        <v>0.00142778501340974</v>
+      </c>
+      <c r="T17">
+        <v>0.00142778501340974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.169900666666666</v>
+      </c>
+      <c r="H18">
+        <v>6.509701999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="J18">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>62.503947</v>
+      </c>
+      <c r="N18">
+        <v>187.511841</v>
+      </c>
+      <c r="O18">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P18">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q18">
+        <v>135.627356264598</v>
+      </c>
+      <c r="R18">
+        <v>1220.646206381382</v>
+      </c>
+      <c r="S18">
+        <v>0.05669302967706394</v>
+      </c>
+      <c r="T18">
+        <v>0.05669302967706395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.169900666666666</v>
+      </c>
+      <c r="H19">
+        <v>6.509701999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="J19">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.182903</v>
+      </c>
+      <c r="N19">
+        <v>0.548709</v>
+      </c>
+      <c r="O19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q19">
+        <v>0.3968813416353333</v>
+      </c>
+      <c r="R19">
+        <v>3.571932074718</v>
+      </c>
+      <c r="S19">
+        <v>0.00016589872647601</v>
+      </c>
+      <c r="T19">
+        <v>0.00016589872647601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.169900666666666</v>
+      </c>
+      <c r="H20">
+        <v>6.509701999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="J20">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.281423</v>
+      </c>
+      <c r="O20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q20">
+        <v>0.2035533184384444</v>
+      </c>
+      <c r="R20">
+        <v>1.831979865946</v>
+      </c>
+      <c r="S20">
+        <v>8.508647990293245E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.508647990293245E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.169900666666666</v>
+      </c>
+      <c r="H21">
+        <v>6.509701999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="J21">
+        <v>0.07051268393320077</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N21">
+        <v>40.155898</v>
+      </c>
+      <c r="O21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q21">
+        <v>29.04476994693289</v>
+      </c>
+      <c r="R21">
+        <v>261.4029295223959</v>
+      </c>
+      <c r="S21">
+        <v>0.01214088403634815</v>
+      </c>
+      <c r="T21">
+        <v>0.01214088403634815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.468428</v>
+      </c>
+      <c r="H22">
+        <v>10.405284</v>
+      </c>
+      <c r="I22">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="J22">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.57413</v>
+      </c>
+      <c r="N22">
+        <v>4.72239</v>
+      </c>
+      <c r="O22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q22">
+        <v>5.45975656764</v>
+      </c>
+      <c r="R22">
+        <v>49.13780910876</v>
+      </c>
+      <c r="S22">
+        <v>0.002282210238728617</v>
+      </c>
+      <c r="T22">
+        <v>0.002282210238728617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.468428</v>
+      </c>
+      <c r="H23">
+        <v>10.405284</v>
+      </c>
+      <c r="I23">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="J23">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>62.503947</v>
+      </c>
+      <c r="N23">
+        <v>187.511841</v>
+      </c>
+      <c r="O23">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P23">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q23">
+        <v>216.790439885316</v>
+      </c>
+      <c r="R23">
+        <v>1951.113958967844</v>
+      </c>
+      <c r="S23">
+        <v>0.09061967423551472</v>
+      </c>
+      <c r="T23">
+        <v>0.09061967423551473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.468428</v>
+      </c>
+      <c r="H24">
+        <v>10.405284</v>
+      </c>
+      <c r="I24">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="J24">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.182903</v>
+      </c>
+      <c r="N24">
+        <v>0.548709</v>
+      </c>
+      <c r="O24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q24">
+        <v>0.634385886484</v>
+      </c>
+      <c r="R24">
+        <v>5.709472978356</v>
+      </c>
+      <c r="S24">
+        <v>0.0002651770179681349</v>
+      </c>
+      <c r="T24">
+        <v>0.0002651770179681349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.468428</v>
+      </c>
+      <c r="H25">
+        <v>10.405284</v>
+      </c>
+      <c r="I25">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="J25">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.281423</v>
+      </c>
+      <c r="O25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q25">
+        <v>0.3253651376813333</v>
+      </c>
+      <c r="R25">
+        <v>2.928286239132</v>
+      </c>
+      <c r="S25">
+        <v>0.0001360045341476929</v>
+      </c>
+      <c r="T25">
+        <v>0.0001360045341476929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.468428</v>
+      </c>
+      <c r="H26">
+        <v>10.405284</v>
+      </c>
+      <c r="I26">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="J26">
+        <v>0.1127093839206758</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N26">
+        <v>40.155898</v>
+      </c>
+      <c r="O26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q26">
+        <v>46.42594699611467</v>
+      </c>
+      <c r="R26">
+        <v>417.833522965032</v>
+      </c>
+      <c r="S26">
+        <v>0.01940631789431664</v>
+      </c>
+      <c r="T26">
+        <v>0.01940631789431664</v>
       </c>
     </row>
   </sheetData>
